--- a/meetrapporten/meetraport.xlsx
+++ b/meetrapporten/meetraport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\school\ICT\Periode C\Vision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51187B4-741F-4E68-9CD4-5796F645953B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA974A75-B47F-4D63-9E7B-BDDE3673DA58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9F53BA2-90AF-41A0-9C68-1BA96A6182F1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Image name</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>Originele Algoritme (in seconde)</t>
   </si>
+  <si>
+    <t>Nieuw Algoritme (in ms)</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="ss.000"/>
+    <numFmt numFmtId="164" formatCode="ss.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -208,29 +211,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,6 +482,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Afbeldingen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -535,7 +602,542 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Seconde</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="ss.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340746024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Originele Algoritme (in seconde)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>child</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>male 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>male 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>male 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>female 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>female 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>female 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$32:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>89.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D3C-4246-9306-94455A321354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nieuw Algoritme (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$3:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>child</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>male 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>male 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>male 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>female 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>female 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>female 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$32:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.39</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D3C-4246-9306-94455A321354}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="340746024"/>
+        <c:axId val="340740448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="340746024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Afbeldingen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340740448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="340740448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>MS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> seconde</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -662,7 +1264,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1198,6 +2343,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7F0899-B342-471F-8D7F-CF25FE12F321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1503,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EB1E80-8E07-445F-81A4-4D13C1F5D28F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,10 +2699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1530,10 +2713,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1547,13 +2730,13 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>1.1759259259259259E-5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>9.3750000000000009E-6</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <f>SUM((C3-D3)/C3)</f>
         <v>0.20275590551181091</v>
       </c>
@@ -1563,13 +2746,13 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1.1643518518518517E-5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>8.3217592592592601E-6</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <f t="shared" ref="E4:E8" si="0">SUM((C4-D4)/C4)</f>
         <v>0.28528827037773347</v>
       </c>
@@ -1579,26 +2762,26 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>1.298611111111111E-5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>1.0150462962962964E-5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>0.21836007130124765</v>
       </c>
@@ -1608,13 +2791,13 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1.1377314814814816E-5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>9.4097222222222219E-6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>0.17293997965412017</v>
       </c>
@@ -1624,13 +2807,13 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>3.2291666666666674E-6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>3.4374999999999993E-6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>-6.4516129032257605E-2</v>
       </c>
@@ -1640,9 +2823,9 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1672,6 +2855,133 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>89.52</v>
+      </c>
+      <c r="D32" s="13">
+        <v>60.76</v>
+      </c>
+      <c r="E32" s="12">
+        <f>SUM((C32-D32)/C32)</f>
+        <v>0.32126899016979443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14">
+        <v>87.99</v>
+      </c>
+      <c r="D33" s="13">
+        <v>41.82</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" ref="E33" si="1">SUM((C33-D33)/C33)</f>
+        <v>0.52471871803614045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14">
+        <v>90.18</v>
+      </c>
+      <c r="D35" s="13">
+        <v>85.39</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" ref="E35:E37" si="2">SUM((C35-D35)/C35)</f>
+        <v>5.3115990241738811E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="14">
+        <v>91.58</v>
+      </c>
+      <c r="D36" s="4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2563878576108321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="14">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="D37" s="13">
+        <v>21.45</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.2662337662337661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1710,10 +3020,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1724,10 +3034,10 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1738,10 +3048,10 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1752,10 +3062,10 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1766,10 +3076,10 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1780,10 +3090,10 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1794,8 +3104,8 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
